--- a/2015-no.2/portscan-effectiveness.xlsx
+++ b/2015-no.2/portscan-effectiveness.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diag\Documents\GitHub\sumida_sec\2015-no.2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12996" windowHeight="8436"/>
   </bookViews>
   <sheets>
     <sheet name="portscan-effectiveness" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -34,8 +29,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -697,24 +692,13 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -847,26 +831,17 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="84457488"/>
-        <c:axId val="84458608"/>
+        <c:dLbls/>
+        <c:axId val="102134528"/>
+        <c:axId val="102136064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="84457488"/>
+        <c:axId val="102134528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -884,7 +859,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -919,16 +893,15 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84458608"/>
+        <c:crossAx val="102136064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="84458608"/>
+        <c:axId val="102136064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -946,7 +919,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -981,7 +953,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84457488"/>
+        <c:crossAx val="102134528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -995,7 +967,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1019,7 +990,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1027,17 +998,7 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1058,6 +1019,16 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>--top-ports</a:t>
+            </a:r>
+            <a:r>
               <a:rPr lang="ja-JP" altLang="en-US" sz="1600" b="1">
                 <a:solidFill>
                   <a:schemeClr val="accent1">
@@ -1065,7 +1036,7 @@
                   </a:schemeClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t>スキャンする</a:t>
+              <a:t>オプションでスキャンする</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="1">
@@ -1124,11 +1095,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.28446776638385318"/>
+          <c:x val="0.14805387698630695"/>
           <c:y val="1.7156862745098041E-2"/>
         </c:manualLayout>
       </c:layout>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1136,32 +1106,11 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1290,25 +1239,16 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="319388016"/>
-        <c:axId val="319386336"/>
+        <c:dLbls/>
+        <c:axId val="102467072"/>
+        <c:axId val="102468992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="319388016"/>
+        <c:axId val="102467072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1372,7 +1312,6 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1380,30 +1319,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1438,17 +1356,16 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="319386336"/>
+        <c:crossAx val="102468992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="319386336"/>
+        <c:axId val="102468992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1491,7 +1408,6 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -1499,30 +1415,9 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1557,7 +1452,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="319388016"/>
+        <c:crossAx val="102467072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1571,7 +1466,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1600,7 +1494,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2826,7 +2720,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2861,7 +2755,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3038,21 +2932,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
@@ -3060,7 +2954,7 @@
     <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3074,7 +2968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>0.1</v>
       </c>
@@ -3088,7 +2982,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>0.2</v>
       </c>
@@ -3102,7 +2996,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>0.3</v>
       </c>
@@ -3116,7 +3010,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>0.4</v>
       </c>
@@ -3130,7 +3024,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>0.5</v>
       </c>
@@ -3144,7 +3038,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>0.6</v>
       </c>
@@ -3158,7 +3052,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>0.7</v>
       </c>
@@ -3172,7 +3066,7 @@
         <v>5157</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>0.8</v>
       </c>
@@ -3186,7 +3080,7 @@
         <v>7981</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>0.85</v>
       </c>
@@ -3200,7 +3094,7 @@
         <v>9623</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>0.9</v>
       </c>
@@ -3214,7 +3108,7 @@
         <v>11307</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>0.95</v>
       </c>
@@ -3228,7 +3122,7 @@
         <v>13035</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>0.99</v>
       </c>
@@ -3242,7 +3136,7 @@
         <v>15094</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>1</v>
       </c>
